--- a/mos2023/tai-khoan-gmetrix-ttth.xlsx
+++ b/mos2023/tai-khoan-gmetrix-ttth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\learn\mos2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9E5F73-9388-41F1-ADFE-75BB007D59F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3611F469-65C1-4072-95EE-99CEABF26D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="14880" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ds-tong-hop-2023" sheetId="3" r:id="rId1"/>
@@ -3072,7 +3072,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/m/yy\ h:mm"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3182,6 +3182,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3232,7 +3245,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3326,6 +3339,12 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -12274,10 +12293,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D75" sqref="B67:D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13250,7 +13269,7 @@
       </c>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -13265,7 +13284,7 @@
       </c>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -13280,7 +13299,7 @@
       </c>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -13295,7 +13314,7 @@
       </c>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -13305,10 +13324,12 @@
       <c r="C68" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D68" s="1"/>
+      <c r="D68" s="1">
+        <v>28</v>
+      </c>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -13318,10 +13339,12 @@
       <c r="C69" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D69" s="1"/>
+      <c r="D69" s="1">
+        <v>30</v>
+      </c>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -13331,10 +13354,12 @@
       <c r="C70" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D70" s="1"/>
+      <c r="D70" s="1">
+        <v>30</v>
+      </c>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -13344,10 +13369,12 @@
       <c r="C71" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D71" s="1"/>
+      <c r="D71" s="1">
+        <v>30</v>
+      </c>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -13357,10 +13384,12 @@
       <c r="C72" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D72" s="1"/>
+      <c r="D72" s="1">
+        <v>30</v>
+      </c>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -13370,10 +13399,12 @@
       <c r="C73" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D73" s="1"/>
+      <c r="D73" s="1">
+        <v>30</v>
+      </c>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -13383,10 +13414,12 @@
       <c r="C74" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D74" s="1"/>
+      <c r="D74" s="1">
+        <v>30</v>
+      </c>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -13396,23 +13429,26 @@
       <c r="C75" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D75" s="1"/>
+      <c r="D75" s="1">
+        <v>30</v>
+      </c>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="43">
         <v>75</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="46"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -13425,7 +13461,7 @@
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -13438,7 +13474,7 @@
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -13451,7 +13487,7 @@
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -13620,7 +13656,7 @@
   <dimension ref="A1:J80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13699,7 +13735,7 @@
       </c>
       <c r="J2" s="34">
         <f ca="1">NOW()</f>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13734,7 +13770,7 @@
       </c>
       <c r="J3" s="34">
         <f t="shared" ref="J3:J66" ca="1" si="6">NOW()</f>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13769,7 +13805,7 @@
       </c>
       <c r="J4" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13804,7 +13840,7 @@
       </c>
       <c r="J5" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13839,7 +13875,7 @@
       </c>
       <c r="J6" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13874,7 +13910,7 @@
       </c>
       <c r="J7" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13909,7 +13945,7 @@
       </c>
       <c r="J8" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13944,7 +13980,7 @@
       </c>
       <c r="J9" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13979,7 +14015,7 @@
       </c>
       <c r="J10" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14014,7 +14050,7 @@
       </c>
       <c r="J11" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14049,7 +14085,7 @@
       </c>
       <c r="J12" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14084,7 +14120,7 @@
       </c>
       <c r="J13" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14119,7 +14155,7 @@
       </c>
       <c r="J14" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14154,7 +14190,7 @@
       </c>
       <c r="J15" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14189,7 +14225,7 @@
       </c>
       <c r="J16" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14224,7 +14260,7 @@
       </c>
       <c r="J17" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14259,7 +14295,7 @@
       </c>
       <c r="J18" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14294,7 +14330,7 @@
       </c>
       <c r="J19" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14329,7 +14365,7 @@
       </c>
       <c r="J20" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14364,7 +14400,7 @@
       </c>
       <c r="J21" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14399,7 +14435,7 @@
       </c>
       <c r="J22" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14434,7 +14470,7 @@
       </c>
       <c r="J23" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14469,7 +14505,7 @@
       </c>
       <c r="J24" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14504,7 +14540,7 @@
       </c>
       <c r="J25" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14539,7 +14575,7 @@
       </c>
       <c r="J26" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14574,7 +14610,7 @@
       </c>
       <c r="J27" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14609,7 +14645,7 @@
       </c>
       <c r="J28" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14644,7 +14680,7 @@
       </c>
       <c r="J29" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14679,7 +14715,7 @@
       </c>
       <c r="J30" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14714,7 +14750,7 @@
       </c>
       <c r="J31" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14749,7 +14785,7 @@
       </c>
       <c r="J32" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14784,7 +14820,7 @@
       </c>
       <c r="J33" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14819,7 +14855,7 @@
       </c>
       <c r="J34" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14854,7 +14890,7 @@
       </c>
       <c r="J35" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14889,7 +14925,7 @@
       </c>
       <c r="J36" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14924,7 +14960,7 @@
       </c>
       <c r="J37" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14959,7 +14995,7 @@
       </c>
       <c r="J38" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14994,7 +15030,7 @@
       </c>
       <c r="J39" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15029,7 +15065,7 @@
       </c>
       <c r="J40" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15064,7 +15100,7 @@
       </c>
       <c r="J41" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15099,7 +15135,7 @@
       </c>
       <c r="J42" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15134,7 +15170,7 @@
       </c>
       <c r="J43" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15169,7 +15205,7 @@
       </c>
       <c r="J44" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15204,7 +15240,7 @@
       </c>
       <c r="J45" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15239,7 +15275,7 @@
       </c>
       <c r="J46" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15274,7 +15310,7 @@
       </c>
       <c r="J47" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15309,7 +15345,7 @@
       </c>
       <c r="J48" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15344,7 +15380,7 @@
       </c>
       <c r="J49" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15379,7 +15415,7 @@
       </c>
       <c r="J50" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15414,7 +15450,7 @@
       </c>
       <c r="J51" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15449,7 +15485,7 @@
       </c>
       <c r="J52" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15484,7 +15520,7 @@
       </c>
       <c r="J53" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15519,7 +15555,7 @@
       </c>
       <c r="J54" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15554,7 +15590,7 @@
       </c>
       <c r="J55" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15589,7 +15625,7 @@
       </c>
       <c r="J56" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15624,7 +15660,7 @@
       </c>
       <c r="J57" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15659,7 +15695,7 @@
       </c>
       <c r="J58" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15694,7 +15730,7 @@
       </c>
       <c r="J59" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15729,7 +15765,7 @@
       </c>
       <c r="J60" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15764,7 +15800,7 @@
       </c>
       <c r="J61" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15799,7 +15835,7 @@
       </c>
       <c r="J62" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15834,7 +15870,7 @@
       </c>
       <c r="J63" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15869,7 +15905,7 @@
       </c>
       <c r="J64" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15904,7 +15940,7 @@
       </c>
       <c r="J65" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15939,7 +15975,7 @@
       </c>
       <c r="J66" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15974,7 +16010,7 @@
       </c>
       <c r="J67" s="34">
         <f t="shared" ref="J67" ca="1" si="13">NOW()</f>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -16146,7 +16182,7 @@
       </c>
       <c r="J2" s="34">
         <f ca="1">NOW()</f>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16181,7 +16217,7 @@
       </c>
       <c r="J3" s="34">
         <f t="shared" ref="J3:J66" ca="1" si="6">NOW()</f>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16216,7 +16252,7 @@
       </c>
       <c r="J4" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16251,7 +16287,7 @@
       </c>
       <c r="J5" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16286,7 +16322,7 @@
       </c>
       <c r="J6" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16321,7 +16357,7 @@
       </c>
       <c r="J7" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16356,7 +16392,7 @@
       </c>
       <c r="J8" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16391,7 +16427,7 @@
       </c>
       <c r="J9" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16426,7 +16462,7 @@
       </c>
       <c r="J10" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16461,7 +16497,7 @@
       </c>
       <c r="J11" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16496,7 +16532,7 @@
       </c>
       <c r="J12" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16531,7 +16567,7 @@
       </c>
       <c r="J13" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16566,7 +16602,7 @@
       </c>
       <c r="J14" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16601,7 +16637,7 @@
       </c>
       <c r="J15" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16636,7 +16672,7 @@
       </c>
       <c r="J16" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16671,7 +16707,7 @@
       </c>
       <c r="J17" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16706,7 +16742,7 @@
       </c>
       <c r="J18" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16741,7 +16777,7 @@
       </c>
       <c r="J19" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16776,7 +16812,7 @@
       </c>
       <c r="J20" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16811,7 +16847,7 @@
       </c>
       <c r="J21" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16846,7 +16882,7 @@
       </c>
       <c r="J22" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16881,7 +16917,7 @@
       </c>
       <c r="J23" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16916,7 +16952,7 @@
       </c>
       <c r="J24" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16951,7 +16987,7 @@
       </c>
       <c r="J25" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16986,7 +17022,7 @@
       </c>
       <c r="J26" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17021,7 +17057,7 @@
       </c>
       <c r="J27" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17056,7 +17092,7 @@
       </c>
       <c r="J28" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17091,7 +17127,7 @@
       </c>
       <c r="J29" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17126,7 +17162,7 @@
       </c>
       <c r="J30" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17161,7 +17197,7 @@
       </c>
       <c r="J31" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17196,7 +17232,7 @@
       </c>
       <c r="J32" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17231,7 +17267,7 @@
       </c>
       <c r="J33" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17266,7 +17302,7 @@
       </c>
       <c r="J34" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17301,7 +17337,7 @@
       </c>
       <c r="J35" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17336,7 +17372,7 @@
       </c>
       <c r="J36" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17371,7 +17407,7 @@
       </c>
       <c r="J37" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17406,7 +17442,7 @@
       </c>
       <c r="J38" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17441,7 +17477,7 @@
       </c>
       <c r="J39" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17476,7 +17512,7 @@
       </c>
       <c r="J40" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17511,7 +17547,7 @@
       </c>
       <c r="J41" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17546,7 +17582,7 @@
       </c>
       <c r="J42" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17581,7 +17617,7 @@
       </c>
       <c r="J43" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17616,7 +17652,7 @@
       </c>
       <c r="J44" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17651,7 +17687,7 @@
       </c>
       <c r="J45" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17686,7 +17722,7 @@
       </c>
       <c r="J46" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17721,7 +17757,7 @@
       </c>
       <c r="J47" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17756,7 +17792,7 @@
       </c>
       <c r="J48" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17791,7 +17827,7 @@
       </c>
       <c r="J49" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17826,7 +17862,7 @@
       </c>
       <c r="J50" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17861,7 +17897,7 @@
       </c>
       <c r="J51" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17896,7 +17932,7 @@
       </c>
       <c r="J52" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17931,7 +17967,7 @@
       </c>
       <c r="J53" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17966,7 +18002,7 @@
       </c>
       <c r="J54" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18001,7 +18037,7 @@
       </c>
       <c r="J55" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18036,7 +18072,7 @@
       </c>
       <c r="J56" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18071,7 +18107,7 @@
       </c>
       <c r="J57" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18106,7 +18142,7 @@
       </c>
       <c r="J58" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18141,7 +18177,7 @@
       </c>
       <c r="J59" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18176,7 +18212,7 @@
       </c>
       <c r="J60" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18211,7 +18247,7 @@
       </c>
       <c r="J61" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18246,7 +18282,7 @@
       </c>
       <c r="J62" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18281,7 +18317,7 @@
       </c>
       <c r="J63" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18316,7 +18352,7 @@
       </c>
       <c r="J64" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18351,7 +18387,7 @@
       </c>
       <c r="J65" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18386,7 +18422,7 @@
       </c>
       <c r="J66" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18421,7 +18457,7 @@
       </c>
       <c r="J67" s="34">
         <f t="shared" ref="J67" ca="1" si="13">NOW()</f>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -18593,7 +18629,7 @@
       </c>
       <c r="J2" s="34">
         <f ca="1">NOW()</f>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18628,7 +18664,7 @@
       </c>
       <c r="J3" s="34">
         <f t="shared" ref="J3:J66" ca="1" si="6">NOW()</f>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18663,7 +18699,7 @@
       </c>
       <c r="J4" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18698,7 +18734,7 @@
       </c>
       <c r="J5" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18733,7 +18769,7 @@
       </c>
       <c r="J6" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18768,7 +18804,7 @@
       </c>
       <c r="J7" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18803,7 +18839,7 @@
       </c>
       <c r="J8" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18838,7 +18874,7 @@
       </c>
       <c r="J9" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18873,7 +18909,7 @@
       </c>
       <c r="J10" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18908,7 +18944,7 @@
       </c>
       <c r="J11" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18943,7 +18979,7 @@
       </c>
       <c r="J12" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18978,7 +19014,7 @@
       </c>
       <c r="J13" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19013,7 +19049,7 @@
       </c>
       <c r="J14" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19048,7 +19084,7 @@
       </c>
       <c r="J15" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19083,7 +19119,7 @@
       </c>
       <c r="J16" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19118,7 +19154,7 @@
       </c>
       <c r="J17" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19153,7 +19189,7 @@
       </c>
       <c r="J18" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19188,7 +19224,7 @@
       </c>
       <c r="J19" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19223,7 +19259,7 @@
       </c>
       <c r="J20" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19258,7 +19294,7 @@
       </c>
       <c r="J21" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19293,7 +19329,7 @@
       </c>
       <c r="J22" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19328,7 +19364,7 @@
       </c>
       <c r="J23" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19363,7 +19399,7 @@
       </c>
       <c r="J24" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19398,7 +19434,7 @@
       </c>
       <c r="J25" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19433,7 +19469,7 @@
       </c>
       <c r="J26" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19468,7 +19504,7 @@
       </c>
       <c r="J27" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19503,7 +19539,7 @@
       </c>
       <c r="J28" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19538,7 +19574,7 @@
       </c>
       <c r="J29" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19573,7 +19609,7 @@
       </c>
       <c r="J30" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19608,7 +19644,7 @@
       </c>
       <c r="J31" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19643,7 +19679,7 @@
       </c>
       <c r="J32" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19678,7 +19714,7 @@
       </c>
       <c r="J33" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19713,7 +19749,7 @@
       </c>
       <c r="J34" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19748,7 +19784,7 @@
       </c>
       <c r="J35" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19783,7 +19819,7 @@
       </c>
       <c r="J36" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19818,7 +19854,7 @@
       </c>
       <c r="J37" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19853,7 +19889,7 @@
       </c>
       <c r="J38" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19888,7 +19924,7 @@
       </c>
       <c r="J39" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19923,7 +19959,7 @@
       </c>
       <c r="J40" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19958,7 +19994,7 @@
       </c>
       <c r="J41" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19993,7 +20029,7 @@
       </c>
       <c r="J42" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20028,7 +20064,7 @@
       </c>
       <c r="J43" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20063,7 +20099,7 @@
       </c>
       <c r="J44" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20098,7 +20134,7 @@
       </c>
       <c r="J45" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20133,7 +20169,7 @@
       </c>
       <c r="J46" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20168,7 +20204,7 @@
       </c>
       <c r="J47" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20203,7 +20239,7 @@
       </c>
       <c r="J48" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20238,7 +20274,7 @@
       </c>
       <c r="J49" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20273,7 +20309,7 @@
       </c>
       <c r="J50" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20308,7 +20344,7 @@
       </c>
       <c r="J51" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20343,7 +20379,7 @@
       </c>
       <c r="J52" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20378,7 +20414,7 @@
       </c>
       <c r="J53" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20413,7 +20449,7 @@
       </c>
       <c r="J54" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20448,7 +20484,7 @@
       </c>
       <c r="J55" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20483,7 +20519,7 @@
       </c>
       <c r="J56" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20518,7 +20554,7 @@
       </c>
       <c r="J57" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20553,7 +20589,7 @@
       </c>
       <c r="J58" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20588,7 +20624,7 @@
       </c>
       <c r="J59" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20623,7 +20659,7 @@
       </c>
       <c r="J60" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20658,7 +20694,7 @@
       </c>
       <c r="J61" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20693,7 +20729,7 @@
       </c>
       <c r="J62" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20728,7 +20764,7 @@
       </c>
       <c r="J63" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20763,7 +20799,7 @@
       </c>
       <c r="J64" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20798,7 +20834,7 @@
       </c>
       <c r="J65" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20833,7 +20869,7 @@
       </c>
       <c r="J66" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20868,7 +20904,7 @@
       </c>
       <c r="J67" s="34">
         <f t="shared" ref="J67" ca="1" si="13">NOW()</f>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -21040,7 +21076,7 @@
       </c>
       <c r="J2" s="34">
         <f ca="1">NOW()</f>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -21075,7 +21111,7 @@
       </c>
       <c r="J3" s="34">
         <f t="shared" ref="J3:J66" ca="1" si="6">NOW()</f>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -21110,7 +21146,7 @@
       </c>
       <c r="J4" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -21145,7 +21181,7 @@
       </c>
       <c r="J5" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -21180,7 +21216,7 @@
       </c>
       <c r="J6" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -21215,7 +21251,7 @@
       </c>
       <c r="J7" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -21250,7 +21286,7 @@
       </c>
       <c r="J8" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -21285,7 +21321,7 @@
       </c>
       <c r="J9" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -21320,7 +21356,7 @@
       </c>
       <c r="J10" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -21355,7 +21391,7 @@
       </c>
       <c r="J11" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -21390,7 +21426,7 @@
       </c>
       <c r="J12" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -21425,7 +21461,7 @@
       </c>
       <c r="J13" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -21460,7 +21496,7 @@
       </c>
       <c r="J14" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -21495,7 +21531,7 @@
       </c>
       <c r="J15" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -21530,7 +21566,7 @@
       </c>
       <c r="J16" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -21565,7 +21601,7 @@
       </c>
       <c r="J17" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -21600,7 +21636,7 @@
       </c>
       <c r="J18" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -21635,7 +21671,7 @@
       </c>
       <c r="J19" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -21670,7 +21706,7 @@
       </c>
       <c r="J20" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -21705,7 +21741,7 @@
       </c>
       <c r="J21" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -21740,7 +21776,7 @@
       </c>
       <c r="J22" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -21775,7 +21811,7 @@
       </c>
       <c r="J23" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -21810,7 +21846,7 @@
       </c>
       <c r="J24" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -21845,7 +21881,7 @@
       </c>
       <c r="J25" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -21880,7 +21916,7 @@
       </c>
       <c r="J26" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -21915,7 +21951,7 @@
       </c>
       <c r="J27" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -21950,7 +21986,7 @@
       </c>
       <c r="J28" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -21985,7 +22021,7 @@
       </c>
       <c r="J29" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22020,7 +22056,7 @@
       </c>
       <c r="J30" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22055,7 +22091,7 @@
       </c>
       <c r="J31" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22090,7 +22126,7 @@
       </c>
       <c r="J32" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22125,7 +22161,7 @@
       </c>
       <c r="J33" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22160,7 +22196,7 @@
       </c>
       <c r="J34" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22195,7 +22231,7 @@
       </c>
       <c r="J35" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22230,7 +22266,7 @@
       </c>
       <c r="J36" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22265,7 +22301,7 @@
       </c>
       <c r="J37" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22300,7 +22336,7 @@
       </c>
       <c r="J38" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22335,7 +22371,7 @@
       </c>
       <c r="J39" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22370,7 +22406,7 @@
       </c>
       <c r="J40" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22405,7 +22441,7 @@
       </c>
       <c r="J41" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22440,7 +22476,7 @@
       </c>
       <c r="J42" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22475,7 +22511,7 @@
       </c>
       <c r="J43" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22510,7 +22546,7 @@
       </c>
       <c r="J44" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22545,7 +22581,7 @@
       </c>
       <c r="J45" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22580,7 +22616,7 @@
       </c>
       <c r="J46" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22615,7 +22651,7 @@
       </c>
       <c r="J47" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22650,7 +22686,7 @@
       </c>
       <c r="J48" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22685,7 +22721,7 @@
       </c>
       <c r="J49" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22720,7 +22756,7 @@
       </c>
       <c r="J50" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22755,7 +22791,7 @@
       </c>
       <c r="J51" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22790,7 +22826,7 @@
       </c>
       <c r="J52" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22825,7 +22861,7 @@
       </c>
       <c r="J53" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22860,7 +22896,7 @@
       </c>
       <c r="J54" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22895,7 +22931,7 @@
       </c>
       <c r="J55" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22930,7 +22966,7 @@
       </c>
       <c r="J56" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22965,7 +23001,7 @@
       </c>
       <c r="J57" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -23000,7 +23036,7 @@
       </c>
       <c r="J58" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -23035,7 +23071,7 @@
       </c>
       <c r="J59" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -23070,7 +23106,7 @@
       </c>
       <c r="J60" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -23105,7 +23141,7 @@
       </c>
       <c r="J61" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -23140,7 +23176,7 @@
       </c>
       <c r="J62" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -23175,7 +23211,7 @@
       </c>
       <c r="J63" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -23210,7 +23246,7 @@
       </c>
       <c r="J64" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -23245,7 +23281,7 @@
       </c>
       <c r="J65" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -23280,7 +23316,7 @@
       </c>
       <c r="J66" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -23315,7 +23351,7 @@
       </c>
       <c r="J67" s="34">
         <f t="shared" ref="J67" ca="1" si="13">NOW()</f>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -23407,7 +23443,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
@@ -23487,7 +23523,7 @@
       </c>
       <c r="J2" s="34">
         <f ca="1">NOW()</f>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -23522,7 +23558,7 @@
       </c>
       <c r="J3" s="34">
         <f t="shared" ref="J3:J66" ca="1" si="6">NOW()</f>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -23557,7 +23593,7 @@
       </c>
       <c r="J4" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -23592,7 +23628,7 @@
       </c>
       <c r="J5" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -23627,7 +23663,7 @@
       </c>
       <c r="J6" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -23662,7 +23698,7 @@
       </c>
       <c r="J7" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -23697,7 +23733,7 @@
       </c>
       <c r="J8" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -23732,7 +23768,7 @@
       </c>
       <c r="J9" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -23767,7 +23803,7 @@
       </c>
       <c r="J10" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -23802,7 +23838,7 @@
       </c>
       <c r="J11" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -23837,7 +23873,7 @@
       </c>
       <c r="J12" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -23872,7 +23908,7 @@
       </c>
       <c r="J13" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -23907,7 +23943,7 @@
       </c>
       <c r="J14" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -23942,7 +23978,7 @@
       </c>
       <c r="J15" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -23977,7 +24013,7 @@
       </c>
       <c r="J16" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -24012,7 +24048,7 @@
       </c>
       <c r="J17" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -24047,7 +24083,7 @@
       </c>
       <c r="J18" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -24082,7 +24118,7 @@
       </c>
       <c r="J19" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -24117,7 +24153,7 @@
       </c>
       <c r="J20" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -24152,7 +24188,7 @@
       </c>
       <c r="J21" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -24187,7 +24223,7 @@
       </c>
       <c r="J22" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -24222,7 +24258,7 @@
       </c>
       <c r="J23" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -24257,7 +24293,7 @@
       </c>
       <c r="J24" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -24292,7 +24328,7 @@
       </c>
       <c r="J25" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -24327,7 +24363,7 @@
       </c>
       <c r="J26" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -24362,7 +24398,7 @@
       </c>
       <c r="J27" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -24397,7 +24433,7 @@
       </c>
       <c r="J28" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -24432,7 +24468,7 @@
       </c>
       <c r="J29" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -24467,7 +24503,7 @@
       </c>
       <c r="J30" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -24502,7 +24538,7 @@
       </c>
       <c r="J31" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -24537,7 +24573,7 @@
       </c>
       <c r="J32" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -24572,7 +24608,7 @@
       </c>
       <c r="J33" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -24607,7 +24643,7 @@
       </c>
       <c r="J34" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -24642,7 +24678,7 @@
       </c>
       <c r="J35" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -24677,7 +24713,7 @@
       </c>
       <c r="J36" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -24712,7 +24748,7 @@
       </c>
       <c r="J37" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -24747,7 +24783,7 @@
       </c>
       <c r="J38" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -24782,7 +24818,7 @@
       </c>
       <c r="J39" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -24817,7 +24853,7 @@
       </c>
       <c r="J40" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -24852,7 +24888,7 @@
       </c>
       <c r="J41" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -24887,7 +24923,7 @@
       </c>
       <c r="J42" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -24922,7 +24958,7 @@
       </c>
       <c r="J43" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -24957,7 +24993,7 @@
       </c>
       <c r="J44" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -24992,7 +25028,7 @@
       </c>
       <c r="J45" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -25027,7 +25063,7 @@
       </c>
       <c r="J46" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -25062,7 +25098,7 @@
       </c>
       <c r="J47" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -25097,7 +25133,7 @@
       </c>
       <c r="J48" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -25132,7 +25168,7 @@
       </c>
       <c r="J49" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -25167,7 +25203,7 @@
       </c>
       <c r="J50" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -25202,7 +25238,7 @@
       </c>
       <c r="J51" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -25237,7 +25273,7 @@
       </c>
       <c r="J52" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -25272,7 +25308,7 @@
       </c>
       <c r="J53" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -25307,7 +25343,7 @@
       </c>
       <c r="J54" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -25342,7 +25378,7 @@
       </c>
       <c r="J55" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -25377,7 +25413,7 @@
       </c>
       <c r="J56" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -25412,7 +25448,7 @@
       </c>
       <c r="J57" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -25447,7 +25483,7 @@
       </c>
       <c r="J58" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -25482,7 +25518,7 @@
       </c>
       <c r="J59" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -25517,7 +25553,7 @@
       </c>
       <c r="J60" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -25552,7 +25588,7 @@
       </c>
       <c r="J61" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -25587,7 +25623,7 @@
       </c>
       <c r="J62" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -25622,7 +25658,7 @@
       </c>
       <c r="J63" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -25657,7 +25693,7 @@
       </c>
       <c r="J64" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -25692,7 +25728,7 @@
       </c>
       <c r="J65" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -25727,7 +25763,7 @@
       </c>
       <c r="J66" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -25762,7 +25798,7 @@
       </c>
       <c r="J67" s="34">
         <f t="shared" ref="J67" ca="1" si="13">NOW()</f>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -25934,7 +25970,7 @@
       </c>
       <c r="J2" s="34">
         <f ca="1">NOW()</f>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -25969,7 +26005,7 @@
       </c>
       <c r="J3" s="34">
         <f t="shared" ref="J3:J66" ca="1" si="6">NOW()</f>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -26004,7 +26040,7 @@
       </c>
       <c r="J4" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -26039,7 +26075,7 @@
       </c>
       <c r="J5" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -26074,7 +26110,7 @@
       </c>
       <c r="J6" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -26109,7 +26145,7 @@
       </c>
       <c r="J7" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -26144,7 +26180,7 @@
       </c>
       <c r="J8" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -26179,7 +26215,7 @@
       </c>
       <c r="J9" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -26214,7 +26250,7 @@
       </c>
       <c r="J10" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -26249,7 +26285,7 @@
       </c>
       <c r="J11" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -26284,7 +26320,7 @@
       </c>
       <c r="J12" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -26319,7 +26355,7 @@
       </c>
       <c r="J13" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -26354,7 +26390,7 @@
       </c>
       <c r="J14" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -26389,7 +26425,7 @@
       </c>
       <c r="J15" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -26424,7 +26460,7 @@
       </c>
       <c r="J16" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -26459,7 +26495,7 @@
       </c>
       <c r="J17" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -26494,7 +26530,7 @@
       </c>
       <c r="J18" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -26529,7 +26565,7 @@
       </c>
       <c r="J19" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -26564,7 +26600,7 @@
       </c>
       <c r="J20" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -26599,7 +26635,7 @@
       </c>
       <c r="J21" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -26634,7 +26670,7 @@
       </c>
       <c r="J22" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -26669,7 +26705,7 @@
       </c>
       <c r="J23" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -26704,7 +26740,7 @@
       </c>
       <c r="J24" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -26739,7 +26775,7 @@
       </c>
       <c r="J25" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -26774,7 +26810,7 @@
       </c>
       <c r="J26" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -26809,7 +26845,7 @@
       </c>
       <c r="J27" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -26844,7 +26880,7 @@
       </c>
       <c r="J28" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -26879,7 +26915,7 @@
       </c>
       <c r="J29" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -26914,7 +26950,7 @@
       </c>
       <c r="J30" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -26949,7 +26985,7 @@
       </c>
       <c r="J31" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -26984,7 +27020,7 @@
       </c>
       <c r="J32" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27019,7 +27055,7 @@
       </c>
       <c r="J33" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27054,7 +27090,7 @@
       </c>
       <c r="J34" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27089,7 +27125,7 @@
       </c>
       <c r="J35" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27124,7 +27160,7 @@
       </c>
       <c r="J36" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27159,7 +27195,7 @@
       </c>
       <c r="J37" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27194,7 +27230,7 @@
       </c>
       <c r="J38" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27229,7 +27265,7 @@
       </c>
       <c r="J39" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27264,7 +27300,7 @@
       </c>
       <c r="J40" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27299,7 +27335,7 @@
       </c>
       <c r="J41" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27334,7 +27370,7 @@
       </c>
       <c r="J42" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27369,7 +27405,7 @@
       </c>
       <c r="J43" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27404,7 +27440,7 @@
       </c>
       <c r="J44" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27439,7 +27475,7 @@
       </c>
       <c r="J45" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27474,7 +27510,7 @@
       </c>
       <c r="J46" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27509,7 +27545,7 @@
       </c>
       <c r="J47" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27544,7 +27580,7 @@
       </c>
       <c r="J48" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27579,7 +27615,7 @@
       </c>
       <c r="J49" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27614,7 +27650,7 @@
       </c>
       <c r="J50" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27649,7 +27685,7 @@
       </c>
       <c r="J51" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27684,7 +27720,7 @@
       </c>
       <c r="J52" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27719,7 +27755,7 @@
       </c>
       <c r="J53" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27754,7 +27790,7 @@
       </c>
       <c r="J54" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27789,7 +27825,7 @@
       </c>
       <c r="J55" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27824,7 +27860,7 @@
       </c>
       <c r="J56" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27859,7 +27895,7 @@
       </c>
       <c r="J57" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27894,7 +27930,7 @@
       </c>
       <c r="J58" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27929,7 +27965,7 @@
       </c>
       <c r="J59" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27964,7 +28000,7 @@
       </c>
       <c r="J60" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27999,7 +28035,7 @@
       </c>
       <c r="J61" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -28034,7 +28070,7 @@
       </c>
       <c r="J62" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -28069,7 +28105,7 @@
       </c>
       <c r="J63" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -28104,7 +28140,7 @@
       </c>
       <c r="J64" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -28139,7 +28175,7 @@
       </c>
       <c r="J65" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -28174,7 +28210,7 @@
       </c>
       <c r="J66" s="34">
         <f t="shared" ca="1" si="6"/>
-        <v>45000.006421296297</v>
+        <v>45000.383777430558</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -28209,7 +28245,7 @@
       </c>
       <c r="J67" s="34">
         <f t="shared" ref="J67" ca="1" si="13">NOW()</f>
-        <v>45000.006421296297</v>
+        <v>45000.383777314812</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
